--- a/raw_data/UNECA/Table RECs.xlsx
+++ b/raw_data/UNECA/Table RECs.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,6 +3061,31 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f8563a7a-d9fa-431f-b50c-34632ce7e22e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
+    <_dlc_DocId xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">RFF2MQFYXHK7-870072624-109769</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">
+      <Url>https://unicef.sharepoint.com/teams/DAPM-ChildMortality/_layouts/15/DocIdRedir.aspx?ID=RFF2MQFYXHK7-870072624-109769</Url>
+      <Description>RFF2MQFYXHK7-870072624-109769</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3110,43 +3135,50 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f8563a7a-d9fa-431f-b50c-34632ce7e22e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ca283e0b-db31-4043-a2ef-b80661bf084a" xsi:nil="true"/>
-    <_dlc_DocId xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">RFF2MQFYXHK7-870072624-109769</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="37893236-cb76-4d6f-8a18-4c624154e39c">
-      <Url>https://unicef.sharepoint.com/teams/DAPM-ChildMortality/_layouts/15/DocIdRedir.aspx?ID=RFF2MQFYXHK7-870072624-109769</Url>
-      <Description>RFF2MQFYXHK7-870072624-109769</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50BAC03E-E758-4588-8680-8B1EA583AD30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50BAC03E-E758-4588-8680-8B1EA583AD30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="37893236-cb76-4d6f-8a18-4c624154e39c"/>
+    <ds:schemaRef ds:uri="f8563a7a-d9fa-431f-b50c-34632ce7e22e"/>
+    <ds:schemaRef ds:uri="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B57C6DF-6F8E-4151-9420-0BEDAE50FE06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F68D0E1-FA3E-4AEB-8F3B-3AE2F6260BB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8563a7a-d9fa-431f-b50c-34632ce7e22e"/>
+    <ds:schemaRef ds:uri="ca283e0b-db31-4043-a2ef-b80661bf084a"/>
+    <ds:schemaRef ds:uri="37893236-cb76-4d6f-8a18-4c624154e39c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F82030E-D0EE-461A-BBDB-7E52FB007E57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F82030E-D0EE-461A-BBDB-7E52FB007E57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F68D0E1-FA3E-4AEB-8F3B-3AE2F6260BB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B57C6DF-6F8E-4151-9420-0BEDAE50FE06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>